--- a/BI_Project4_with_DLinear/Documents(문서작업)/결과데이터_정리.xlsx
+++ b/BI_Project4_with_DLinear/Documents(문서작업)/결과데이터_정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\내 드라이브\work_space\Project\BI_Competition\BI_Project4_with_DLinear\Documents(문서작업)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4294084-FF3E-4BB3-AA7C-4914122554BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC9769-6F04-49AF-9B08-CA0AD344B82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99CCFD1F-690F-4465-BC49-C3F7B1A0ED89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99CCFD1F-690F-4465-BC49-C3F7B1A0ED89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
   <si>
     <t>작업환경</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,122 @@
   </si>
   <si>
     <t>Local_CPU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-13 00:00:00 ~ 2023-03-13 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-13 06:00:00 ~ 2023-03-13 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-13 12:00:00 ~ 2023-03-13 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-13 18:00:00 ~ 2023-03-13 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-14 00:00:00 ~ 2023-03-14 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-14 06:00:00 ~ 2023-03-14 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-14 12:00:00 ~ 2023-03-14 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-14 18:00:00 ~ 2023-03-14 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-15 00:00:00 ~ 2023-03-15 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-15 06:00:00 ~ 2023-03-15 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-15 12:00:00 ~ 2023-03-15 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-15 18:00:00 ~ 2023-03-15 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-16 00:00:00 ~ 2023-03-16 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-16 06:00:00 ~ 2023-03-16 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-16 12:00:00 ~ 2023-03-16 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-16 18:00:00 ~ 2023-03-16 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-17 00:00:00 ~ 2023-03-17 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-17 06:00:00 ~ 2023-03-17 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-17 18:00:00 ~ 2023-03-17 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-17 12:00:00 ~ 2023-03-17 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-18 00:00:00 ~ 2023-03-18 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-18 06:00:00 ~ 2023-03-18 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-18 12:00:00 ~ 2023-03-18 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-18 18:00:00 ~ 2023-03-18 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-19 00:00:00 ~ 2023-03-19 05:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-19 06:00:00 ~ 2023-03-19 11:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-19 12:00:00 ~ 2023-03-19 17:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-19 18:00:00 ~ 2023-03-19 23:55:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과데이터: 6시간 단위 (총 28개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -203,9 +319,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +345,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +366,20 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -555,6 +691,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,35 +750,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,58 +772,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,856 +1213,2006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D96751C-AC3E-4117-892E-4503D0620F92}">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="13" width="16.625" customWidth="1"/>
     <col min="14" max="14" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="I2" s="25" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="28"/>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="I3" s="26" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="27"/>
-      <c r="I4" s="28" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="I5" s="17" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="I5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9">
+      <c r="C8" s="27"/>
+      <c r="D8" s="1">
         <v>34.071899999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>0.17649999999999999</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="1">
         <v>0.25590000000000002</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="11">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9">
+      <c r="J8" s="27"/>
+      <c r="K8" s="1">
         <v>21.5123</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="1">
         <v>0.17829999999999999</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="11">
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9">
+      <c r="C9" s="27"/>
+      <c r="D9" s="1">
         <v>34.543300000000002</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>0.1762</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="1">
         <v>0.2581</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="11">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="9">
+      <c r="J9" s="27"/>
+      <c r="K9" s="1">
         <v>21.581499999999998</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="1">
         <v>0.1754</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="1">
         <v>0.26190000000000002</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="11">
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9">
+      <c r="C10" s="27"/>
+      <c r="D10" s="1">
         <v>35.366599999999998</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>0.1744</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="1">
         <v>0.25669999999999998</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="11">
         <v>2.98E-2</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9">
+      <c r="J10" s="27"/>
+      <c r="K10" s="1">
         <v>21.709299999999999</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="1">
         <v>0.1794</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="11">
         <v>1.26E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9">
+      <c r="C11" s="27"/>
+      <c r="D11" s="1">
         <v>35.380400000000002</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>0.24979999999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="1">
         <v>0.2944</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="11">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="9">
+      <c r="J11" s="27"/>
+      <c r="K11" s="1">
         <v>21.854900000000001</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="1">
         <v>0.254</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="1">
         <v>0.28939999999999999</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="11">
         <v>2.24E-2</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9">
+      <c r="C12" s="27"/>
+      <c r="D12" s="1">
         <v>36.701700000000002</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>0.17449999999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="1">
         <v>0.25369999999999998</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="11">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9">
+      <c r="J12" s="27"/>
+      <c r="K12" s="1">
         <v>21.988</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="1">
         <v>0.1782</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="1">
         <v>0.2555</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="11">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9">
+      <c r="C13" s="27"/>
+      <c r="D13" s="1">
         <v>36.436999999999998</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>0.2072</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="1">
         <v>0.27389999999999998</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="11">
         <v>2.24E-2</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9">
+      <c r="J13" s="27"/>
+      <c r="K13" s="1">
         <v>22.408200000000001</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="1">
         <v>0.2084</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="1">
         <v>0.27339999999999998</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="11">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="9">
+      <c r="C14" s="27"/>
+      <c r="D14" s="1">
         <v>36.432000000000002</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>0.1641</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="1">
         <v>0.2475</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="11">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="9">
+      <c r="J14" s="27"/>
+      <c r="K14" s="1">
         <v>22.0322</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="1">
         <v>0.1633</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="1">
         <v>0.249</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="9">
+      <c r="C15" s="27"/>
+      <c r="D15" s="1">
         <v>35.374499999999998</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>0.21010000000000001</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="1">
         <v>0.28160000000000002</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="11">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9">
+      <c r="J15" s="27"/>
+      <c r="K15" s="1">
         <v>22.271999999999998</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="1">
         <v>0.1978</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="1">
         <v>0.26829999999999998</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="11">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="9">
+      <c r="C16" s="27"/>
+      <c r="D16" s="1">
         <v>35.3643</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <v>0.2082</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="1">
         <v>0.27689999999999998</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="11">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9">
+      <c r="J16" s="27"/>
+      <c r="K16" s="1">
         <v>22.016200000000001</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="1">
         <v>0.20860000000000001</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="1">
         <v>0.28270000000000001</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="11">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="9">
+      <c r="C17" s="27"/>
+      <c r="D17" s="1">
         <v>35.752000000000002</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="1">
         <v>0.17710000000000001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="1">
         <v>0.25869999999999999</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="11">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9">
+      <c r="J17" s="27"/>
+      <c r="K17" s="1">
         <v>22.157800000000002</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="1">
         <v>0.17749999999999999</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="1">
         <v>0.25459999999999999</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="11">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15">
+      <c r="C18" s="23"/>
+      <c r="D18" s="7">
         <v>32.998399999999997</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="7">
         <v>0.19159999999999999</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="7">
         <v>0.27650000000000002</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="12">
         <v>2.12E-2</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="15">
+      <c r="J18" s="23"/>
+      <c r="K18" s="7">
         <v>17.825800000000001</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="7">
         <v>0.17730000000000001</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="7">
         <v>0.26569999999999999</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="9">
+      <c r="C21" s="27"/>
+      <c r="D21" s="1">
         <v>47.258899999999997</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="1">
         <v>0.16059999999999999</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="1">
         <v>0.24890000000000001</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="11">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="9">
+      <c r="J21" s="27"/>
+      <c r="K21" s="1">
         <v>43.702100000000002</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="1">
         <v>0.249</v>
       </c>
-      <c r="N21" s="31"/>
+      <c r="N21" s="11">
+        <v>3.9399999999999998E-2</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="9">
+      <c r="C22" s="27"/>
+      <c r="D22" s="1">
         <v>48.999600000000001</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="1">
         <v>0.19320000000000001</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="1">
         <v>0.26900000000000002</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="11">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="9">
+      <c r="J22" s="27"/>
+      <c r="K22" s="1">
         <v>43.95</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="1">
         <v>0.19289999999999999</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="1">
         <v>0.26619999999999999</v>
       </c>
-      <c r="N22" s="31"/>
+      <c r="N22" s="11">
+        <v>1.72E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="9">
+      <c r="C23" s="27"/>
+      <c r="D23" s="1">
         <v>47.794600000000003</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="1">
         <v>0.20269999999999999</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="1">
         <v>0.2792</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="9">
+      <c r="J23" s="27"/>
+      <c r="K23" s="1">
         <v>44.294400000000003</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="1">
         <v>0.20250000000000001</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="1">
         <v>0.27529999999999999</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="11">
+        <v>2.7900000000000001E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="9">
+      <c r="C24" s="27"/>
+      <c r="D24" s="1">
         <v>48.697800000000001</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="1">
         <v>0.18679999999999999</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="1">
         <v>0.2671</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="9">
+      <c r="J24" s="27"/>
+      <c r="K24" s="1">
         <v>44.2029</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="1">
         <v>0.19989999999999999</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="1">
         <v>0.28079999999999999</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="11">
+        <v>3.2500000000000001E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="9">
+      <c r="C25" s="27"/>
+      <c r="D25" s="1">
         <v>48.91</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="1">
         <v>0.15939999999999999</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="1">
         <v>0.24510000000000001</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="11">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="9">
+      <c r="J25" s="27"/>
+      <c r="K25" s="1">
         <v>44.408200000000001</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="1">
         <v>0.15970000000000001</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="1">
         <v>0.24809999999999999</v>
       </c>
-      <c r="N25" s="31"/>
+      <c r="N25" s="11">
+        <v>4.0800000000000003E-2</v>
+      </c>
     </row>
     <row r="26" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="15">
+      <c r="C26" s="23"/>
+      <c r="D26" s="7">
         <v>47.754899999999999</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="7">
         <v>0.17050000000000001</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="7">
         <v>0.25090000000000001</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="12">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="32"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="7">
+        <v>41.276299999999999</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="N26" s="12">
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="27" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="11" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="9">
+      <c r="C29" s="27"/>
+      <c r="D29" s="1">
         <v>64.258399999999995</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="1">
         <v>0.17230000000000001</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="1">
         <v>0.25890000000000002</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="I29" s="13" t="s">
+      <c r="G29" s="11">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="31"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="1">
+        <v>67.366799999999998</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.1822</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="N29" s="11">
+        <v>4.1399999999999999E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="9">
+      <c r="C30" s="27"/>
+      <c r="D30" s="1">
         <v>66.233999999999995</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="1">
         <v>0.20480000000000001</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="1">
         <v>0.26860000000000001</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="I30" s="13" t="s">
+      <c r="G30" s="11">
+        <v>2.58E-2</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="31"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="1">
+        <v>68.381900000000002</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.2059</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="N30" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="31"/>
-      <c r="I31" s="13" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="1">
+        <v>68.878900000000002</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1.32E-2</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="31"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="1">
+        <v>67.031300000000002</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.2069</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1.9699999999999999E-2</v>
+      </c>
     </row>
     <row r="32" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="32"/>
-      <c r="I32" s="14" t="s">
+      <c r="C32" s="23"/>
+      <c r="D32" s="7">
+        <v>68.906499999999994</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.2601</v>
+      </c>
+      <c r="G32" s="12">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="I32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="32"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="7">
+        <v>62.889499999999998</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="N32" s="12">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41">
+        <v>60.006700000000002</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0.1895</v>
+      </c>
+      <c r="F35" s="41">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="G35" s="42">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41">
+        <v>64.303600000000003</v>
+      </c>
+      <c r="L35" s="41">
+        <v>0.1895</v>
+      </c>
+      <c r="M35" s="41">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="N35" s="42">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="1">
+        <v>60.706600000000002</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.1913</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="G36" s="47">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="34"/>
+      <c r="K36" s="1">
+        <v>66.936499999999995</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.1913</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="N36" s="47">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="1">
+        <v>61.836300000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.1913</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="G37" s="11">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="34"/>
+      <c r="K37" s="1">
+        <v>67.577200000000005</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.1913</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="N37" s="11">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="1">
+        <v>63.739199999999997</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.1986</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="1">
+        <v>68.010499999999993</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.1986</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="N38" s="11">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="1">
+        <v>66.296000000000006</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="34"/>
+      <c r="K39" s="1">
+        <v>69.032300000000006</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="N39" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="1">
+        <v>66.040800000000004</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.1905</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="G40" s="11">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="34"/>
+      <c r="K40" s="1">
+        <v>69.051400000000001</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.1905</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="N40" s="11">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="1">
+        <v>74.134799999999998</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="G41" s="11">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="1">
+        <v>76.041499999999999</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="N41" s="11">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="1">
+        <v>75.854299999999995</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.1908</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="G42" s="45">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="1">
+        <v>80.441500000000005</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.1908</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="N42" s="45">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="1">
+        <v>78.789599999999993</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.1951</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="1">
+        <v>83.461100000000002</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.1951</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="1">
+        <v>77.818299999999994</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.1903</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="34"/>
+      <c r="K44" s="1">
+        <v>88.461299999999994</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.19070000000000001</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="N44" s="11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="1">
+        <v>84.147099999999995</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="G45" s="11">
+        <v>3.32E-2</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="34"/>
+      <c r="K45" s="1">
+        <v>90.412999999999997</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="N45" s="11">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="1">
+        <v>87.395200000000003</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="G46" s="45">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="34"/>
+      <c r="K46" s="1">
+        <v>88.156099999999995</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="N46" s="45">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="1">
+        <v>85.181200000000004</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="34"/>
+      <c r="K47" s="1">
+        <v>95.156099999999995</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="N47" s="11">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="1">
+        <v>95.395200000000003</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="34"/>
+      <c r="K48" s="1">
+        <v>98.156099999999995</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.1981</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="N48" s="11">
+        <v>2.47E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="1">
+        <v>95.580200000000005</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.1918</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G49" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="34"/>
+      <c r="K49" s="1">
+        <v>99.731499999999997</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="N49" s="11">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="1">
+        <v>100.0917</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="G50" s="45">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="34"/>
+      <c r="K50" s="1">
+        <v>105.31529999999999</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.2462</v>
+      </c>
+      <c r="N50" s="45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="1">
+        <v>95.771100000000004</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.2576</v>
+      </c>
+      <c r="G51" s="11">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="34"/>
+      <c r="K51" s="1">
+        <v>108.6293</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="N51" s="11">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="1">
+        <v>107.4693</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="G52" s="11">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="34"/>
+      <c r="K52" s="1">
+        <v>105.3536</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="N52" s="11">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="1">
+        <v>104.3579</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.1774</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="34"/>
+      <c r="K53" s="1">
+        <v>75.121399999999994</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.1789</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="N53" s="11">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="1">
+        <v>101.0551</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="G54" s="45">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="34"/>
+      <c r="K54" s="1">
+        <v>78.911100000000005</v>
+      </c>
+      <c r="L54" s="46">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="N54" s="45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="1">
+        <v>111.7443</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="G55" s="11">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="34"/>
+      <c r="K55" s="1">
+        <v>79.163200000000003</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.1777</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.2535</v>
+      </c>
+      <c r="N55" s="11">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="1">
+        <v>110.9239</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="G56" s="47">
+        <v>0.1263</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="34"/>
+      <c r="K56" s="1">
+        <v>85.201499999999996</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.1774</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="N56" s="47">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="1">
+        <v>107.8891</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.2447</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="34"/>
+      <c r="K57" s="1">
+        <v>85.534800000000004</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.18459999999999999</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="N57" s="11">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="1">
+        <v>111.68040000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="34"/>
+      <c r="K58" s="1">
+        <v>129.06890000000001</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.1799</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="N58" s="11">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="1">
+        <v>112.1705</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.2442</v>
+      </c>
+      <c r="G59" s="11">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="34"/>
+      <c r="K59" s="1">
+        <v>78.331900000000005</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="N59" s="11">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="1">
+        <v>115.33069999999999</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.1769</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="34"/>
+      <c r="K60" s="1">
+        <v>78.766099999999994</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.1757</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.2467</v>
+      </c>
+      <c r="N60" s="47">
+        <v>0.16289999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="1">
+        <v>115.0044</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.2505</v>
+      </c>
+      <c r="G61" s="11">
+        <v>2.64E-2</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="34"/>
+      <c r="K61" s="1">
+        <v>80.293499999999995</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.1847</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="N61" s="11">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="7">
+        <v>119.181</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.1757</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.2472</v>
+      </c>
+      <c r="G62" s="48">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I62" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="44"/>
+      <c r="K62" s="7">
+        <v>79.210499999999996</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0.2447</v>
+      </c>
+      <c r="N62" s="12">
+        <v>1.6899999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="114">
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
@@ -1840,41 +3224,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
